--- a/StructureDefinition-profile-SupplyRequest.xlsx
+++ b/StructureDefinition-profile-SupplyRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8090908-06:00</t>
+    <t>2026-02-09T22:05:43.3728978-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -425,33 +425,73 @@
     <t>SupplyRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>SupplyRequest.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SupplyRequest.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SupplyRequest.basedOn` is will have a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
+  </si>
+  <si>
+    <t>SupplyRequest.extension:deliverFor</t>
+  </si>
+  <si>
+    <t>deliverFor</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SupplyRequest.deliverFor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverFor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SupplyRequest.deliverFor` is will have a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
+  </si>
+  <si>
+    <t>SupplyRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>SupplyRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -459,6 +499,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -667,6 +710,9 @@
     <t>SupplyRequest.parameter.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -811,27 +857,23 @@
     <t>SupplyRequest.requester.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.requester|0.0.1-snapshot-3}
-</t>
+    <t>SupplyRequest.requester.extension:requester</t>
+  </si>
+  <si>
+    <t>requester</t>
   </si>
   <si>
     <t>Cross-version extension for SupplyRequest.requester from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.requester` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SupplyRequest.requester` is mapped to FHIR R4 element `SupplyRequest.requester`.</t>
   </si>
   <si>
     <t>SupplyRequest.requester.reference</t>
@@ -1012,11 +1054,20 @@
     <t>SupplyRequest.deliverTo.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.deliverTo|0.0.1-snapshot-3}
-</t>
+    <t>SupplyRequest.deliverTo.extension:deliverTo</t>
+  </si>
+  <si>
+    <t>deliverTo</t>
   </si>
   <si>
     <t>Cross-version extension for SupplyRequest.deliverTo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverTo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `SupplyRequest.deliverTo` is mapped to FHIR R4 element `SupplyRequest.deliverTo`.</t>
   </si>
   <si>
     <t>SupplyRequest.deliverTo.reference</t>
@@ -1335,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1344,7 +1395,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2310,7 +2361,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2329,17 +2380,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2376,16 +2425,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2409,7 +2456,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2420,11 +2467,13 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2437,26 +2486,24 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2504,7 +2551,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2525,7 +2572,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2533,12 +2580,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2547,7 +2596,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2556,23 +2605,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" t="s" s="2">
         <v>150</v>
       </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2620,7 +2667,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2632,38 +2679,38 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2672,19 +2719,23 @@
         <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2708,74 +2759,74 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2787,16 +2838,20 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2820,13 +2875,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2844,13 +2899,13 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2859,24 +2914,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2893,7 +2948,7 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
@@ -2902,19 +2957,17 @@
         <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q14" t="s" s="2">
-        <v>177</v>
-      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2934,13 +2987,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2958,7 +3011,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2973,32 +3026,32 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>88</v>
@@ -3013,17 +3066,15 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3048,13 +3099,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3072,10 +3123,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>88</v>
@@ -3087,24 +3138,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3112,7 +3163,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3127,20 +3178,22 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="R16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3160,13 +3213,13 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>77</v>
@@ -3184,10 +3237,10 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3199,16 +3252,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3224,10 +3277,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3236,7 +3289,7 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>198</v>
@@ -3247,7 +3300,9 @@
       <c r="M17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3272,13 +3327,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3299,10 +3354,10 @@
         <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3311,24 +3366,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3336,7 +3391,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3348,16 +3403,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3408,10 +3463,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3420,7 +3475,7 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -3429,7 +3484,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3437,14 +3492,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3463,17 +3518,15 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3522,7 +3575,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3534,63 +3587,59 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3638,19 +3687,19 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3659,7 +3708,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3667,21 +3716,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3693,15 +3742,17 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3726,10 +3777,10 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -3750,73 +3801,75 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3864,43 +3917,43 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3916,16 +3969,16 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3952,10 +4005,10 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -3976,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -3991,16 +4044,16 @@
         <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
@@ -4012,7 +4065,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4028,18 +4081,20 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4103,28 +4158,28 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4143,13 +4198,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4200,7 +4255,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4215,28 +4270,28 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4252,16 +4307,16 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4312,7 +4367,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4324,39 +4379,39 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4364,16 +4419,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4412,51 +4467,51 @@
         <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>211</v>
-      </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4479,13 +4534,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4536,19 +4591,19 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -4557,7 +4612,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -4565,10 +4620,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4579,7 +4634,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4588,20 +4643,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4638,31 +4691,31 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4671,7 +4724,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4679,12 +4732,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4702,19 +4757,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4740,13 +4795,13 @@
         <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>77</v>
@@ -4764,19 +4819,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -4785,7 +4840,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -4793,10 +4848,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4819,16 +4874,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4878,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4887,7 +4942,7 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>100</v>
@@ -4899,7 +4954,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4933,7 +4988,7 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>282</v>
@@ -4968,13 +5023,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4992,7 +5047,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5021,21 +5076,21 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5047,15 +5102,17 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5104,13 +5161,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5119,24 +5176,24 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5147,7 +5204,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5156,18 +5213,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5192,37 +5251,37 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
@@ -5231,28 +5290,28 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5268,16 +5327,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5328,7 +5387,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5343,24 +5402,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>306</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5371,7 +5430,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5383,7 +5442,7 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>309</v>
@@ -5416,13 +5475,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5440,13 +5499,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5455,24 +5514,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5483,7 +5542,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5495,13 +5554,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5552,13 +5611,13 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
@@ -5567,24 +5626,24 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5607,13 +5666,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>205</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5664,7 +5723,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5676,16 +5735,16 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>208</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5693,10 +5752,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5704,11 +5763,11 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
@@ -5719,13 +5778,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5764,40 +5823,40 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>211</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -5805,10 +5864,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5831,13 +5890,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5888,19 +5947,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -5909,7 +5968,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -5917,10 +5976,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5931,7 +5990,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -5940,20 +5999,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -5990,31 +6047,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6023,7 +6080,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6031,12 +6088,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6054,19 +6113,19 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6092,13 +6151,13 @@
         <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>77</v>
@@ -6116,19 +6175,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6137,7 +6196,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6145,10 +6204,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6171,16 +6230,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6230,7 +6289,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6239,7 +6298,7 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
@@ -6251,7 +6310,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6259,10 +6318,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6285,7 +6344,7 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>282</v>
@@ -6320,13 +6379,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6403,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6368,6 +6427,234 @@
         <v>131</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SupplyRequest.xlsx
+++ b/StructureDefinition-profile-SupplyRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3728978-06:00</t>
+    <t>2026-02-17T14:42:26.9305717-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.basedOn` is will have a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
+Element `SupplyRequest.basedOn` has a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
   </si>
   <si>
     <t>SupplyRequest.extension:deliverFor</t>
@@ -482,7 +482,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverFor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.deliverFor` is will have a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
+Element `SupplyRequest.deliverFor` has a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
   </si>
   <si>
     <t>SupplyRequest.modifierExtension</t>
@@ -710,13 +710,27 @@
     <t>SupplyRequest.parameter.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>SupplyRequest.parameter.extension:parameter</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.parameter|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for SupplyRequest.parameter from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `SupplyRequest.parameter` has is mapped to FHIR R4 element `SupplyRequest.parameter`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>SupplyRequest.parameter.modifierExtension</t>
@@ -873,7 +887,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.requester` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.requester` is mapped to FHIR R4 element `SupplyRequest.requester`.</t>
+Element `SupplyRequest.requester` has is mapped to FHIR R4 element `SupplyRequest.requester`, but has no comparisons.</t>
   </si>
   <si>
     <t>SupplyRequest.requester.reference</t>
@@ -1067,7 +1081,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverTo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.deliverTo` is mapped to FHIR R4 element `SupplyRequest.deliverTo`.</t>
+Element `SupplyRequest.deliverTo` has is mapped to FHIR R4 element `SupplyRequest.deliverTo`, but has no comparisons.</t>
   </si>
   <si>
     <t>SupplyRequest.deliverTo.reference</t>
@@ -1386,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1395,7 +1409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.1796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3723,7 +3737,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3745,14 +3759,12 @@
         <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3789,19 +3801,17 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3822,7 +3832,7 @@
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -3830,14 +3840,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3850,26 +3862,24 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3917,7 +3927,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3926,7 +3936,7 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>139</v>
@@ -3938,7 +3948,7 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -3946,33 +3956,33 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>232</v>
@@ -3980,8 +3990,12 @@
       <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4005,55 +4019,55 @@
         <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4084,17 +4098,15 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4119,10 +4131,10 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4172,14 +4184,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4195,18 +4207,20 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4255,7 +4269,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4270,28 +4284,28 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4310,13 +4324,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4367,7 +4381,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4382,28 +4396,28 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4422,13 +4436,13 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4479,7 +4493,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4494,28 +4508,28 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4531,16 +4545,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4591,7 +4605,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4603,27 +4617,27 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4634,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -4646,13 +4660,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4691,31 +4705,31 @@
         <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4724,7 +4738,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4732,14 +4746,12 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>77</v>
       </c>
@@ -4748,7 +4760,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4760,17 +4772,15 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4807,19 +4817,19 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4848,12 +4858,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="B31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -4871,10 +4883,10 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>276</v>
@@ -4933,19 +4945,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -4954,7 +4966,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -4962,10 +4974,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4988,16 +5000,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5023,13 +5035,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5047,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5056,7 +5068,7 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
@@ -5076,10 +5088,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5102,16 +5114,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5137,13 +5149,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5161,7 +5173,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5182,7 +5194,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5190,10 +5202,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5216,16 +5228,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5275,7 +5287,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5296,7 +5308,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5304,21 +5316,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5330,15 +5342,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5387,13 +5401,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5402,28 +5416,28 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5439,16 +5453,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5475,13 +5489,13 @@
         <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>77</v>
@@ -5499,7 +5513,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5514,24 +5528,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5554,13 +5568,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>317</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5587,13 +5601,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5611,7 +5625,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5626,16 +5640,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="38">
@@ -5654,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5669,10 +5683,10 @@
         <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5729,7 +5743,7 @@
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
@@ -5738,24 +5752,24 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5778,13 +5792,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5835,7 +5849,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5853,10 +5867,10 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -5890,13 +5904,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5947,7 +5961,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -5959,16 +5973,16 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -5976,10 +5990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5990,7 +6004,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6002,13 +6016,13 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6047,31 +6061,31 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6080,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6088,14 +6102,12 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6104,7 +6116,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6116,17 +6128,15 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>134</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6163,19 +6173,19 @@
         <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6204,12 +6214,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C43" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="B43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6227,19 +6239,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6289,19 +6301,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6310,7 +6322,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6318,10 +6330,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6344,16 +6356,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6379,13 +6391,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6403,7 +6415,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6412,7 +6424,7 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -6432,10 +6444,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6458,16 +6470,16 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6493,13 +6505,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6517,7 +6529,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6538,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6546,10 +6558,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6572,16 +6584,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6631,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6652,9 +6664,123 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-SupplyRequest.xlsx
+++ b/StructureDefinition-profile-SupplyRequest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9305717-06:00</t>
+    <t>2026-02-20T11:59:20.9673888-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyRequest|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SupplyRequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -455,7 +455,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <t>parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.parameter|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.parameter}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-SupplyRequest.xlsx
+++ b/StructureDefinition-profile-SupplyRequest.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9673888-06:00</t>
+    <t>2026-02-21T13:36:54.3718982-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/SupplyRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/SupplyRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -425,21 +425,21 @@
     <t>SupplyRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -449,47 +449,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>SupplyRequest.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyRequest.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.basedOn` has a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
-  </si>
-  <si>
-    <t>SupplyRequest.extension:deliverFor</t>
-  </si>
-  <si>
-    <t>deliverFor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyRequest.deliverFor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverFor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.deliverFor` has a context of SupplyRequest based on following the parent source element upwards and mapping to `SupplyRequest`.</t>
-  </si>
-  <si>
     <t>SupplyRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -499,9 +459,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -710,27 +667,10 @@
     <t>SupplyRequest.parameter.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>SupplyRequest.parameter.extension:parameter</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-SupplyRequest.parameter}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyRequest.parameter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `SupplyRequest.parameter` has is mapped to FHIR R4 element `SupplyRequest.parameter`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>SupplyRequest.parameter.modifierExtension</t>
@@ -865,108 +805,6 @@
     <t>FiveWs.author</t>
   </si>
   <si>
-    <t>SupplyRequest.requester.id</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.extension:requester</t>
-  </si>
-  <si>
-    <t>requester</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyRequest.requester from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.requester` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.requester` has is mapped to FHIR R4 element `SupplyRequest.requester`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>SupplyRequest.requester.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>SupplyRequest.supplier</t>
   </si>
   <si>
@@ -1060,40 +898,6 @@
   </si>
   <si>
     <t>Where the supply is destined to go.</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.id</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.extension</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.extension:deliverTo</t>
-  </si>
-  <si>
-    <t>deliverTo</t>
-  </si>
-  <si>
-    <t>Cross-version extension for SupplyRequest.deliverTo from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `SupplyRequest.deliverTo` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `SupplyRequest.deliverTo` has is mapped to FHIR R4 element `SupplyRequest.deliverTo`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.reference</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.type</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.identifier</t>
-  </si>
-  <si>
-    <t>SupplyRequest.deliverTo.display</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1409,7 +1213,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.1796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1437,7 +1241,7 @@
     <col min="26" max="26" width="46.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2375,7 +2179,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2394,15 +2198,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2439,14 +2245,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -2470,7 +2278,7 @@
         <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>77</v>
@@ -2481,13 +2289,11 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2500,24 +2306,26 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2565,7 +2373,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2586,7 +2394,7 @@
         <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>77</v>
@@ -2594,14 +2402,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2610,7 +2416,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2619,21 +2425,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2681,7 +2489,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2693,38 +2501,38 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -2733,23 +2541,19 @@
         <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2773,13 +2577,13 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>77</v>
@@ -2797,50 +2601,50 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2852,20 +2656,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -2889,13 +2689,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -2913,13 +2713,13 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
@@ -2928,24 +2728,24 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2962,7 +2762,7 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>89</v>
@@ -2971,17 +2771,19 @@
         <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="R14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3001,13 +2803,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3025,7 +2827,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3040,32 +2842,32 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>88</v>
@@ -3080,15 +2882,17 @@
         <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3113,34 +2917,34 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>88</v>
@@ -3152,24 +2956,24 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3177,7 +2981,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>88</v>
@@ -3192,22 +2996,20 @@
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q16" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3227,34 +3029,34 @@
         <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>88</v>
@@ -3266,16 +3068,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3291,10 +3093,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
@@ -3303,7 +3105,7 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>198</v>
@@ -3314,9 +3116,7 @@
       <c r="M17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
@@ -3341,13 +3141,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3368,10 +3168,10 @@
         <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
@@ -3380,24 +3180,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3405,7 +3205,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3417,16 +3217,16 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3477,10 +3277,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>88</v>
@@ -3489,7 +3289,7 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -3498,7 +3298,7 @@
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3506,14 +3306,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3532,15 +3332,17 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3589,7 +3391,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3601,59 +3403,63 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3701,19 +3507,19 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -3722,7 +3528,7 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3730,10 +3536,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3744,7 +3550,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3756,13 +3562,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3789,10 +3595,10 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>77</v>
@@ -3801,53 +3607,53 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3856,7 +3662,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -3868,16 +3674,16 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3927,75 +3733,71 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4043,31 +3845,31 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4079,7 +3881,7 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4095,16 +3897,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4131,10 +3933,10 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>77</v>
@@ -4170,28 +3972,28 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4207,20 +4009,18 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4269,7 +4069,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4284,35 +4084,35 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4324,13 +4124,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4381,13 +4181,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4396,35 +4196,35 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4433,16 +4233,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4469,13 +4269,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4493,13 +4293,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4508,35 +4308,35 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4545,16 +4345,16 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4605,13 +4405,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4620,24 +4420,24 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AM28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4660,13 +4460,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4717,7 +4517,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4729,16 +4529,16 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4746,10 +4546,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4760,7 +4560,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -4772,13 +4572,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4817,1970 +4617,42 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AN47" t="s" s="2">
         <v>77</v>
       </c>
     </row>
